--- a/public/sample_sales2.xlsx
+++ b/public/sample_sales2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\tmiyahara\dev\fs\fs-training\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0653D4-F32C-4B6A-8D8A-678A6E7D5AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4913217-ED08-4E27-89EA-07628F7AAA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30315" yWindow="1440" windowWidth="21600" windowHeight="12405" xr2:uid="{E62929CF-20DF-4E31-892A-2A26F9304DDF}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12405" activeTab="3" xr2:uid="{E62929CF-20DF-4E31-892A-2A26F9304DDF}"/>
   </bookViews>
   <sheets>
     <sheet name="PL" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Sheet1" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" iterate="1"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>売上総利益</t>
     <rPh sb="0" eb="5">
@@ -130,13 +129,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>減価償却費</t>
-    <rPh sb="0" eb="5">
-      <t>ゲンカショウキャクヒ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>販管費合計</t>
     <rPh sb="3" eb="5">
       <t>ゴウケイ</t>
@@ -144,43 +136,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>属性</t>
-    <rPh sb="0" eb="2">
-      <t>ゾクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>販管費</t>
-    <rPh sb="0" eb="3">
-      <t>ハンカンヒ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>売上高合計</t>
-    <rPh sb="0" eb="2">
-      <t>ウリアゲ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ダカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>売上原価</t>
-    <rPh sb="0" eb="2">
-      <t>ウリアゲ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ゲンカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>現預金</t>
     <rPh sb="0" eb="3">
       <t>ゲンヨキン</t>
@@ -212,13 +167,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>設備投資</t>
-    <rPh sb="0" eb="4">
-      <t>セツビトウシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>資産合計</t>
     <rPh sb="0" eb="4">
       <t>シサンゴウケイ</t>
@@ -260,13 +208,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>固定負債</t>
-    <rPh sb="0" eb="4">
-      <t>コテイフサイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>負債合計</t>
     <rPh sb="0" eb="4">
       <t>フサイゴウケイ</t>
@@ -328,13 +269,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>営業CF</t>
-    <rPh sb="0" eb="2">
-      <t>エイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>投資CF合計</t>
     <rPh sb="0" eb="2">
       <t>トウシ</t>
@@ -345,37 +279,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>投資CF</t>
-    <rPh sb="0" eb="2">
-      <t>トウシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>流動資産</t>
-    <rPh sb="0" eb="4">
-      <t>リュウドウシサン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>流動負債</t>
-    <rPh sb="0" eb="4">
-      <t>リュウドウフサイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>固定資産</t>
-    <rPh sb="0" eb="2">
-      <t>コテイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シサン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>有形固定資産</t>
     <rPh sb="0" eb="2">
       <t>ユウケイ</t>
@@ -429,26 +332,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>無形固定資産償却費</t>
-    <rPh sb="0" eb="6">
-      <t>ムケイコテイシサン</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ショウキャクヒ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>無形資産償却費</t>
-    <rPh sb="0" eb="4">
-      <t>ムケイシサン</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ショウキャクヒ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>長期借入金</t>
     <rPh sb="0" eb="2">
       <t>チョウキ</t>
@@ -503,19 +386,66 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>純資産</t>
-    <rPh sb="0" eb="3">
-      <t>ジュンシサン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>売上高</t>
+    <t>その他売上</t>
+    <rPh sb="2" eb="5">
+      <t>タウリアゲ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>減価償却費_CF</t>
+    <rPh sb="0" eb="5">
+      <t>ゲンカショウキャクヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無形固定資産償却費_CF</t>
     <rPh sb="0" eb="2">
-      <t>ウリアゲ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ダカ</t>
+      <t>ムケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シサン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ショウキャクヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無形固定資産償却費_PL</t>
+    <rPh sb="0" eb="6">
+      <t>ムケイコテイシサン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ショウキャクヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>減価償却費_PL</t>
+    <rPh sb="0" eb="5">
+      <t>ゲンカショウキャクヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>営業利益_CF</t>
+    <rPh sb="0" eb="4">
+      <t>エイギョウリエキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>設備投資合計_CF</t>
+    <rPh sb="0" eb="4">
+      <t>セツビトウシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゴウケイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -930,668 +860,662 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC409E6-695B-450A-923F-9747A4C93811}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="11" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="2" max="10" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
+      <c r="B1" s="2">
+        <v>2019</v>
       </c>
       <c r="C1" s="2">
-        <v>2019</v>
+        <f>+B1+1</f>
+        <v>2020</v>
       </c>
       <c r="D1" s="2">
-        <f>+C1+1</f>
-        <v>2020</v>
+        <f t="shared" ref="D1:J1" si="0">+C1+1</f>
+        <v>2021</v>
       </c>
       <c r="E1" s="2">
-        <f t="shared" ref="E1:K1" si="0">+D1+1</f>
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2022</v>
       </c>
       <c r="F1" s="2">
         <f t="shared" si="0"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G1" s="2">
         <f t="shared" si="0"/>
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H1" s="2">
         <f t="shared" si="0"/>
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="I1" s="2">
         <f t="shared" si="0"/>
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="J1" s="2">
         <f t="shared" si="0"/>
-        <v>2026</v>
-      </c>
-      <c r="K1" s="2">
-        <f t="shared" si="0"/>
         <v>2027</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>56</v>
+      <c r="B2" s="3">
+        <v>100</v>
       </c>
       <c r="C2" s="3">
-        <v>100</v>
+        <f>+B2+20</f>
+        <v>120</v>
       </c>
       <c r="D2" s="3">
-        <f>+C2+20</f>
-        <v>120</v>
+        <f t="shared" ref="D2:J2" si="1">+C2+20</f>
+        <v>140</v>
       </c>
       <c r="E2" s="3">
-        <f t="shared" ref="E2:K2" si="1">+D2+20</f>
-        <v>140</v>
+        <f t="shared" si="1"/>
+        <v>160</v>
       </c>
       <c r="F2" s="3">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="H2" s="3">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="I2" s="3">
         <f t="shared" si="1"/>
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="J2" s="3">
         <f t="shared" si="1"/>
-        <v>240</v>
-      </c>
-      <c r="K2" s="3">
-        <f t="shared" si="1"/>
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>56</v>
+      <c r="B3" s="3">
+        <v>10</v>
       </c>
       <c r="C3" s="3">
-        <v>10</v>
+        <f>+B3+15</f>
+        <v>25</v>
       </c>
       <c r="D3" s="3">
-        <f>+C3+15</f>
-        <v>25</v>
+        <f t="shared" ref="D3:J3" si="2">+C3+10</f>
+        <v>35</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:K3" si="2">+D3+10</f>
-        <v>35</v>
+        <f t="shared" si="2"/>
+        <v>45</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G3" s="3">
         <f t="shared" si="2"/>
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="I3" s="3">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J3" s="3">
         <f t="shared" si="2"/>
-        <v>85</v>
-      </c>
-      <c r="K3" s="3">
-        <f t="shared" si="2"/>
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
+      </c>
+      <c r="B4" s="3">
+        <v>20</v>
       </c>
       <c r="C4" s="3">
-        <f>+C2+C3</f>
-        <v>110</v>
+        <f t="shared" ref="C4:J4" si="3">+B4</f>
+        <v>20</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:K4" si="3">+D2+D3</f>
-        <v>145</v>
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" si="3"/>
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" si="3"/>
-        <v>205</v>
+        <v>20</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" si="3"/>
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" si="3"/>
-        <v>265</v>
+        <v>20</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" si="3"/>
-        <v>295</v>
+        <v>20</v>
       </c>
       <c r="J4" s="3">
         <f t="shared" si="3"/>
-        <v>325</v>
-      </c>
-      <c r="K4" s="3">
-        <f t="shared" si="3"/>
-        <v>355</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <f>+B2+B3+B4</f>
+        <v>130</v>
       </c>
       <c r="C5" s="3">
-        <v>10</v>
+        <f t="shared" ref="C5:J5" si="4">+C2+C3+C4</f>
+        <v>165</v>
       </c>
       <c r="D5" s="3">
-        <f>+C5+5</f>
-        <v>15</v>
+        <f t="shared" si="4"/>
+        <v>195</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" ref="E5:K5" si="4">+D5+5</f>
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>225</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>255</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>285</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>315</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>345</v>
       </c>
       <c r="J5" s="3">
         <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="K5" s="3">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>10</v>
       </c>
       <c r="C6" s="3">
-        <v>30</v>
+        <f>+B6+5</f>
+        <v>15</v>
       </c>
       <c r="D6" s="3">
-        <f>+C6+5</f>
-        <v>35</v>
+        <f t="shared" ref="D6:J6" si="5">+C6+5</f>
+        <v>20</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" ref="E6:K6" si="5">+D6+5</f>
-        <v>40</v>
+        <f t="shared" si="5"/>
+        <v>25</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="5"/>
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="5"/>
-        <v>65</v>
-      </c>
-      <c r="K6" s="3">
-        <f t="shared" si="5"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>30</v>
       </c>
       <c r="C7" s="3">
-        <f>+C5+C6</f>
+        <f>+B7+5</f>
+        <v>35</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" ref="D7:J7" si="6">+C7+5</f>
         <v>40</v>
       </c>
-      <c r="D7" s="3">
-        <f>+D5+D6</f>
-        <v>50</v>
-      </c>
       <c r="E7" s="3">
-        <f t="shared" ref="E7:K7" si="6">+E5+E6</f>
-        <v>60</v>
+        <f t="shared" si="6"/>
+        <v>45</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="6"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="6"/>
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="6"/>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" si="6"/>
-        <v>110</v>
-      </c>
-      <c r="K7" s="3">
-        <f t="shared" si="6"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <f>+B6+B7</f>
+        <v>40</v>
       </c>
       <c r="C8" s="3">
-        <f>+C4-C7</f>
-        <v>70</v>
+        <f>+C6+C7</f>
+        <v>50</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" ref="D8:K8" si="7">+D4-D7</f>
-        <v>95</v>
+        <f t="shared" ref="D8:J8" si="7">+D6+D7</f>
+        <v>60</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="7"/>
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="7"/>
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="7"/>
-        <v>155</v>
+        <v>90</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="7"/>
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="7"/>
-        <v>195</v>
+        <v>110</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="7"/>
-        <v>215</v>
-      </c>
-      <c r="K8" s="3">
-        <f t="shared" si="7"/>
-        <v>235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="B9" s="3">
+        <f>+B5-B8</f>
+        <v>90</v>
       </c>
       <c r="C9" s="3">
-        <v>10</v>
+        <f t="shared" ref="C9:J9" si="8">+C5-C8</f>
+        <v>115</v>
       </c>
       <c r="D9" s="3">
-        <f>+C9+5</f>
-        <v>15</v>
+        <f t="shared" si="8"/>
+        <v>135</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" ref="E9:K9" si="8">+D9+5</f>
-        <v>20</v>
+        <f t="shared" si="8"/>
+        <v>155</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="8"/>
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="8"/>
-        <v>30</v>
+        <v>195</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="8"/>
-        <v>35</v>
+        <v>215</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="8"/>
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" si="8"/>
-        <v>45</v>
-      </c>
-      <c r="K9" s="3">
-        <f t="shared" si="8"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3">
+        <f>+B10+5</f>
         <v>15</v>
       </c>
-      <c r="C10" s="3">
-        <v>5</v>
-      </c>
       <c r="D10" s="3">
-        <f>+C10+5</f>
-        <v>10</v>
+        <f t="shared" ref="D10:J10" si="9">+C10+5</f>
+        <v>20</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" ref="E10:K10" si="9">+D10+5</f>
-        <v>15</v>
+        <f t="shared" si="9"/>
+        <v>25</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="9"/>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="9"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="9"/>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="K10" s="3">
-        <f t="shared" si="9"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3">
+        <f>+B11+5</f>
+        <v>10</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" ref="D11:J11" si="10">+C11+5</f>
         <v>15</v>
-      </c>
-      <c r="C11" s="3">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" ref="D11:K11" si="10">+C11</f>
-        <v>10</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="K11" s="3">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
+      </c>
+      <c r="B12" s="3">
+        <v>10</v>
       </c>
       <c r="C12" s="3">
-        <v>5</v>
+        <f t="shared" ref="C12:J12" si="11">+B12</f>
+        <v>10</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" ref="D12:K12" si="11">+C12</f>
-        <v>5</v>
+        <f t="shared" si="11"/>
+        <v>10</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="K12" s="3">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
+      </c>
+      <c r="B13" s="3">
+        <v>5</v>
       </c>
       <c r="C13" s="3">
-        <v>10</v>
+        <f t="shared" ref="C13:J13" si="12">+B13</f>
+        <v>5</v>
       </c>
       <c r="D13" s="3">
-        <f>+C13</f>
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>5</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" ref="E13:K13" si="12">+D13</f>
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>5</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="K13" s="3">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>10</v>
       </c>
       <c r="C14" s="3">
-        <f>+SUM(C9:C13)</f>
-        <v>40</v>
+        <f>+B14</f>
+        <v>10</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" ref="D14:K14" si="13">+SUM(D9:D13)</f>
-        <v>50</v>
+        <f t="shared" ref="D14:J14" si="13">+C14</f>
+        <v>10</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="13"/>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="13"/>
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="13"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="13"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="13"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="13"/>
-        <v>110</v>
-      </c>
-      <c r="K14" s="3">
-        <f t="shared" si="13"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <f>+SUM(B10:B14)</f>
+        <v>40</v>
       </c>
       <c r="C15" s="3">
-        <f>+C8-C14</f>
-        <v>30</v>
+        <f t="shared" ref="C15:J15" si="14">+SUM(C10:C14)</f>
+        <v>50</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" ref="D15:K15" si="14">+D8-D14</f>
-        <v>45</v>
+        <f t="shared" si="14"/>
+        <v>60</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="14"/>
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="14"/>
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="14"/>
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="14"/>
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="14"/>
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="14"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3">
+        <f>+B9-B15</f>
+        <v>50</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" ref="C16:J16" si="15">+C9-C15</f>
+        <v>65</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="15"/>
+        <v>75</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="15"/>
+        <v>85</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="15"/>
+        <v>95</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="15"/>
         <v>105</v>
       </c>
-      <c r="K15" s="3">
-        <f t="shared" si="14"/>
+      <c r="H16" s="3">
+        <f t="shared" si="15"/>
         <v>115</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="15"/>
+        <v>125</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="15"/>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1603,908 +1527,850 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B72F84-BC5E-4F9A-95E1-AA222193FD28}">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="31.375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
+      <c r="B1" s="2">
+        <v>2019</v>
       </c>
       <c r="C1" s="2">
-        <v>2019</v>
+        <f>+B1+1</f>
+        <v>2020</v>
       </c>
       <c r="D1" s="2">
-        <f>+C1+1</f>
-        <v>2020</v>
+        <f t="shared" ref="D1:J1" si="0">+C1+1</f>
+        <v>2021</v>
       </c>
       <c r="E1" s="2">
-        <f t="shared" ref="E1:K1" si="0">+D1+1</f>
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2022</v>
       </c>
       <c r="F1" s="2">
         <f t="shared" si="0"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G1" s="2">
         <f t="shared" si="0"/>
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H1" s="2">
         <f t="shared" si="0"/>
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="I1" s="2">
         <f t="shared" si="0"/>
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="J1" s="2">
         <f t="shared" si="0"/>
-        <v>2026</v>
-      </c>
-      <c r="K1" s="2">
-        <f t="shared" si="0"/>
         <v>2027</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
+      </c>
+      <c r="B2" s="3">
+        <v>100</v>
       </c>
       <c r="C2" s="3">
-        <v>100</v>
+        <f>+B2+Sheet1!C3</f>
+        <v>158.65384615384616</v>
       </c>
       <c r="D2" s="3">
         <f>+C2+Sheet1!D3</f>
-        <v>138.40909090909091</v>
+        <v>227.5</v>
       </c>
       <c r="E2" s="3">
         <f>+D2+Sheet1!E3</f>
-        <v>187.04545454545456</v>
+        <v>306.34615384615387</v>
       </c>
       <c r="F2" s="3">
         <f>+E2+Sheet1!F3</f>
-        <v>245.68181818181819</v>
+        <v>395.19230769230774</v>
       </c>
       <c r="G2" s="3">
         <f>+F2+Sheet1!G3</f>
-        <v>314.31818181818181</v>
+        <v>494.03846153846155</v>
       </c>
       <c r="H2" s="3">
         <f>+G2+Sheet1!H3</f>
-        <v>392.9545454545455</v>
+        <v>602.88461538461536</v>
       </c>
       <c r="I2" s="3">
         <f>+H2+Sheet1!I3</f>
-        <v>481.59090909090912</v>
+        <v>721.73076923076928</v>
       </c>
       <c r="J2" s="3">
         <f>+I2+Sheet1!J3</f>
-        <v>580.22727272727275</v>
-      </c>
-      <c r="K2" s="3">
-        <f>+J2+Sheet1!K3</f>
-        <v>688.86363636363637</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+        <v>850.57692307692309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
+      </c>
+      <c r="B3" s="3">
+        <v>20</v>
       </c>
       <c r="C3" s="3">
-        <v>20</v>
+        <f>+B3*(PL!C$5/PL!B$5)</f>
+        <v>25.384615384615383</v>
       </c>
       <c r="D3" s="3">
-        <f>+C3*(PL!D$4/PL!C$4)</f>
-        <v>26.363636363636363</v>
+        <f>+C3*(PL!D$5/PL!C$5)</f>
+        <v>30</v>
       </c>
       <c r="E3" s="3">
-        <f>+D3*(PL!E$4/PL!D$4)</f>
-        <v>31.818181818181817</v>
+        <f>+D3*(PL!E$5/PL!D$5)</f>
+        <v>34.615384615384613</v>
       </c>
       <c r="F3" s="3">
-        <f>+E3*(PL!F$4/PL!E$4)</f>
-        <v>37.272727272727273</v>
+        <f>+E3*(PL!F$5/PL!E$5)</f>
+        <v>39.230769230769226</v>
       </c>
       <c r="G3" s="3">
-        <f>+F3*(PL!G$4/PL!F$4)</f>
-        <v>42.727272727272727</v>
+        <f>+F3*(PL!G$5/PL!F$5)</f>
+        <v>43.84615384615384</v>
       </c>
       <c r="H3" s="3">
-        <f>+G3*(PL!H$4/PL!G$4)</f>
-        <v>48.18181818181818</v>
+        <f>+G3*(PL!H$5/PL!G$5)</f>
+        <v>48.46153846153846</v>
       </c>
       <c r="I3" s="3">
-        <f>+H3*(PL!I$4/PL!H$4)</f>
-        <v>53.636363636363633</v>
+        <f>+H3*(PL!I$5/PL!H$5)</f>
+        <v>53.07692307692308</v>
       </c>
       <c r="J3" s="3">
-        <f>+I3*(PL!J$4/PL!I$4)</f>
-        <v>59.090909090909086</v>
-      </c>
-      <c r="K3" s="3">
-        <f>+J3*(PL!K$4/PL!J$4)</f>
-        <v>64.545454545454533</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+        <f>+I3*(PL!J$5/PL!I$5)</f>
+        <v>57.692307692307693</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
+      </c>
+      <c r="B4" s="3">
+        <v>30</v>
       </c>
       <c r="C4" s="3">
-        <v>30</v>
+        <f>+B4*(PL!C$5/PL!B$5)</f>
+        <v>38.076923076923073</v>
       </c>
       <c r="D4" s="3">
-        <f>+C4*(PL!D$4/PL!C$4)</f>
-        <v>39.545454545454547</v>
+        <f>+C4*(PL!D$5/PL!C$5)</f>
+        <v>45</v>
       </c>
       <c r="E4" s="3">
-        <f>+D4*(PL!E$4/PL!D$4)</f>
-        <v>47.727272727272727</v>
+        <f>+D4*(PL!E$5/PL!D$5)</f>
+        <v>51.92307692307692</v>
       </c>
       <c r="F4" s="3">
-        <f>+E4*(PL!F$4/PL!E$4)</f>
-        <v>55.909090909090914</v>
+        <f>+E4*(PL!F$5/PL!E$5)</f>
+        <v>58.84615384615384</v>
       </c>
       <c r="G4" s="3">
-        <f>+F4*(PL!G$4/PL!F$4)</f>
-        <v>64.090909090909093</v>
+        <f>+F4*(PL!G$5/PL!F$5)</f>
+        <v>65.769230769230759</v>
       </c>
       <c r="H4" s="3">
-        <f>+G4*(PL!H$4/PL!G$4)</f>
-        <v>72.272727272727266</v>
+        <f>+G4*(PL!H$5/PL!G$5)</f>
+        <v>72.692307692307693</v>
       </c>
       <c r="I4" s="3">
-        <f>+H4*(PL!I$4/PL!H$4)</f>
-        <v>80.454545454545439</v>
+        <f>+H4*(PL!I$5/PL!H$5)</f>
+        <v>79.615384615384627</v>
       </c>
       <c r="J4" s="3">
-        <f>+I4*(PL!J$4/PL!I$4)</f>
-        <v>88.636363636363612</v>
-      </c>
-      <c r="K4" s="3">
-        <f>+J4*(PL!K$4/PL!J$4)</f>
-        <v>96.818181818181785</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+        <f>+I4*(PL!J$5/PL!I$5)</f>
+        <v>86.538461538461547</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="B5" s="3">
+        <f>+SUM(B2:B4)</f>
+        <v>150</v>
       </c>
       <c r="C5" s="3">
-        <f>+SUM(C2:C4)</f>
-        <v>150</v>
+        <f t="shared" ref="C5:J5" si="1">+SUM(C2:C4)</f>
+        <v>222.11538461538461</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:K5" si="1">+SUM(D2:D4)</f>
-        <v>204.31818181818181</v>
+        <f t="shared" si="1"/>
+        <v>302.5</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" si="1"/>
-        <v>266.59090909090912</v>
+        <v>392.88461538461536</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" si="1"/>
-        <v>338.86363636363637</v>
+        <v>493.26923076923083</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" si="1"/>
-        <v>421.13636363636363</v>
+        <v>603.65384615384608</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="1"/>
-        <v>513.40909090909099</v>
+        <v>724.03846153846155</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="1"/>
-        <v>615.68181818181824</v>
+        <v>854.42307692307702</v>
       </c>
       <c r="J5" s="3">
         <f t="shared" si="1"/>
-        <v>727.9545454545455</v>
-      </c>
-      <c r="K5" s="3">
-        <f t="shared" si="1"/>
-        <v>850.22727272727263</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+        <v>994.80769230769238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3">
+        <f>+B6+CAPEX!C2-PL!C12</f>
+        <v>25</v>
+      </c>
+      <c r="D6" s="3">
+        <f>+C6+CAPEX!D2-PL!D12</f>
+        <v>30</v>
+      </c>
+      <c r="E6" s="3">
+        <f>+D6+CAPEX!E2-PL!E12</f>
+        <v>35</v>
+      </c>
+      <c r="F6" s="3">
+        <f>+E6+CAPEX!F2-PL!F12</f>
+        <v>40</v>
+      </c>
+      <c r="G6" s="3">
+        <f>+F6+CAPEX!G2-PL!G12</f>
+        <v>45</v>
+      </c>
+      <c r="H6" s="3">
+        <f>+G6+CAPEX!H2-PL!H12</f>
+        <v>50</v>
+      </c>
+      <c r="I6" s="3">
+        <f>+H6+CAPEX!I2-PL!I12</f>
+        <v>55</v>
+      </c>
+      <c r="J6" s="3">
+        <f>+I6+CAPEX!J2-PL!J12</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="B7" s="3">
+        <v>15</v>
       </c>
       <c r="C7" s="3">
-        <v>20</v>
+        <f>+B7+CAPEX!C3-PL!C13</f>
+        <v>15</v>
       </c>
       <c r="D7" s="3">
-        <f>+C7+CAPEX!D2-PL!D11</f>
-        <v>25</v>
+        <f t="shared" ref="D7:J7" si="2">+C7</f>
+        <v>15</v>
       </c>
       <c r="E7" s="3">
-        <f>+D7+CAPEX!E2-PL!E11</f>
-        <v>30</v>
-      </c>
-      <c r="F7" s="3">
-        <f>+E7+CAPEX!F2-PL!F11</f>
-        <v>35</v>
-      </c>
-      <c r="G7" s="3">
-        <f>+F7+CAPEX!G2-PL!G11</f>
-        <v>40</v>
-      </c>
-      <c r="H7" s="3">
-        <f>+G7+CAPEX!H2-PL!H11</f>
-        <v>45</v>
-      </c>
-      <c r="I7" s="3">
-        <f>+H7+CAPEX!I2-PL!I11</f>
-        <v>50</v>
-      </c>
-      <c r="J7" s="3">
-        <f>+I7+CAPEX!J2-PL!J11</f>
-        <v>55</v>
-      </c>
-      <c r="K7" s="3">
-        <f>+J7+CAPEX!K2-PL!K11</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3">
-        <f>+C8+CAPEX!D3-PL!D12</f>
-        <v>15</v>
-      </c>
-      <c r="E8" s="3">
-        <f t="shared" ref="E8:K8" si="2">+D8</f>
-        <v>15</v>
-      </c>
-      <c r="F8" s="3">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="G8" s="3">
+      <c r="F7" s="3">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="H8" s="3">
+      <c r="G7" s="3">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="I8" s="3">
+      <c r="H7" s="3">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="J8" s="3">
+      <c r="I7" s="3">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="K8" s="3">
+      <c r="J7" s="3">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="3">
-        <f>+C7+C8</f>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3">
+        <f>+B6+B7</f>
         <v>35</v>
       </c>
-      <c r="D9" s="3">
-        <f t="shared" ref="D9:K9" si="3">+D7+D8</f>
+      <c r="C8" s="3">
+        <f t="shared" ref="C8:J8" si="3">+C6+C7</f>
         <v>40</v>
       </c>
-      <c r="E9" s="3">
+      <c r="D8" s="3">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="F9" s="3">
+      <c r="E8" s="3">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="G9" s="3">
+      <c r="F8" s="3">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="H9" s="3">
+      <c r="G8" s="3">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="I9" s="3">
+      <c r="H8" s="3">
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="J9" s="3">
+      <c r="I8" s="3">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="K9" s="3">
+      <c r="J8" s="3">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3">
+        <f t="shared" ref="B9:J9" si="4">+B5+B8</f>
+        <v>185</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="4"/>
+        <v>262.11538461538464</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="4"/>
+        <v>347.5</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="4"/>
+        <v>442.88461538461536</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="4"/>
+        <v>548.26923076923083</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="4"/>
+        <v>663.65384615384608</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="4"/>
+        <v>789.03846153846155</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="4"/>
+        <v>924.42307692307702</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="4"/>
+        <v>1069.8076923076924</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="B10" s="3">
+        <v>25</v>
       </c>
       <c r="C10" s="3">
-        <f>+C5+C9</f>
-        <v>185</v>
+        <f>+B10*(PL!C$5/PL!B$5)</f>
+        <v>31.73076923076923</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ref="D10:K10" si="4">+D5+D9</f>
-        <v>244.31818181818181</v>
+        <f>+C10*(PL!D$5/PL!C$5)</f>
+        <v>37.5</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" si="4"/>
-        <v>311.59090909090912</v>
+        <f>+D10*(PL!E$5/PL!D$5)</f>
+        <v>43.269230769230766</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="4"/>
-        <v>388.86363636363637</v>
+        <f>+E10*(PL!F$5/PL!E$5)</f>
+        <v>49.038461538461533</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="4"/>
-        <v>476.13636363636363</v>
+        <f>+F10*(PL!G$5/PL!F$5)</f>
+        <v>54.807692307692299</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="4"/>
-        <v>573.40909090909099</v>
+        <f>+G10*(PL!H$5/PL!G$5)</f>
+        <v>60.576923076923073</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="4"/>
-        <v>680.68181818181824</v>
+        <f>+H10*(PL!I$5/PL!H$5)</f>
+        <v>66.346153846153854</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="4"/>
-        <v>797.9545454545455</v>
-      </c>
-      <c r="K10" s="3">
-        <f t="shared" si="4"/>
-        <v>925.22727272727263</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+        <f>+I10*(PL!J$5/PL!I$5)</f>
+        <v>72.115384615384613</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3">
+        <f>+B11*(PL!C$5/PL!B$5)</f>
+        <v>25.384615384615383</v>
+      </c>
+      <c r="D11" s="3">
+        <f>+C11*(PL!D$5/PL!C$5)</f>
+        <v>30</v>
+      </c>
+      <c r="E11" s="3">
+        <f>+D11*(PL!E$5/PL!D$5)</f>
+        <v>34.615384615384613</v>
+      </c>
+      <c r="F11" s="3">
+        <f>+E11*(PL!F$5/PL!E$5)</f>
+        <v>39.230769230769226</v>
+      </c>
+      <c r="G11" s="3">
+        <f>+F11*(PL!G$5/PL!F$5)</f>
+        <v>43.84615384615384</v>
+      </c>
+      <c r="H11" s="3">
+        <f>+G11*(PL!H$5/PL!G$5)</f>
+        <v>48.46153846153846</v>
+      </c>
+      <c r="I11" s="3">
+        <f>+H11*(PL!I$5/PL!H$5)</f>
+        <v>53.07692307692308</v>
+      </c>
+      <c r="J11" s="3">
+        <f>+I11*(PL!J$5/PL!I$5)</f>
+        <v>57.692307692307693</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
+      </c>
+      <c r="B12" s="3">
+        <f>+B10+B11</f>
+        <v>45</v>
       </c>
       <c r="C12" s="3">
-        <v>25</v>
+        <f t="shared" ref="C12:J12" si="5">+C10+C11</f>
+        <v>57.115384615384613</v>
       </c>
       <c r="D12" s="3">
-        <f>+C12*(PL!D$4/PL!C$4)</f>
-        <v>32.954545454545453</v>
+        <f t="shared" si="5"/>
+        <v>67.5</v>
       </c>
       <c r="E12" s="3">
-        <f>+D12*(PL!E$4/PL!D$4)</f>
-        <v>39.772727272727273</v>
+        <f t="shared" si="5"/>
+        <v>77.884615384615387</v>
       </c>
       <c r="F12" s="3">
-        <f>+E12*(PL!F$4/PL!E$4)</f>
-        <v>46.590909090909093</v>
+        <f t="shared" si="5"/>
+        <v>88.269230769230759</v>
       </c>
       <c r="G12" s="3">
-        <f>+F12*(PL!G$4/PL!F$4)</f>
-        <v>53.409090909090907</v>
+        <f t="shared" si="5"/>
+        <v>98.653846153846132</v>
       </c>
       <c r="H12" s="3">
-        <f>+G12*(PL!H$4/PL!G$4)</f>
-        <v>60.22727272727272</v>
+        <f t="shared" si="5"/>
+        <v>109.03846153846153</v>
       </c>
       <c r="I12" s="3">
-        <f>+H12*(PL!I$4/PL!H$4)</f>
-        <v>67.045454545454533</v>
+        <f t="shared" si="5"/>
+        <v>119.42307692307693</v>
       </c>
       <c r="J12" s="3">
-        <f>+I12*(PL!J$4/PL!I$4)</f>
-        <v>73.863636363636346</v>
-      </c>
-      <c r="K12" s="3">
-        <f>+J12*(PL!K$4/PL!J$4)</f>
-        <v>80.681818181818159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+        <f t="shared" si="5"/>
+        <v>129.80769230769232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="B13" s="3">
+        <v>10</v>
       </c>
       <c r="C13" s="3">
-        <v>20</v>
+        <f t="shared" ref="C13:J14" si="6">+B13</f>
+        <v>10</v>
       </c>
       <c r="D13" s="3">
-        <f>+C13*(PL!D$4/PL!C$4)</f>
-        <v>26.363636363636363</v>
+        <f t="shared" si="6"/>
+        <v>10</v>
       </c>
       <c r="E13" s="3">
-        <f>+D13*(PL!E$4/PL!D$4)</f>
-        <v>31.818181818181817</v>
+        <f t="shared" si="6"/>
+        <v>10</v>
       </c>
       <c r="F13" s="3">
-        <f>+E13*(PL!F$4/PL!E$4)</f>
-        <v>37.272727272727273</v>
+        <f t="shared" si="6"/>
+        <v>10</v>
       </c>
       <c r="G13" s="3">
-        <f>+F13*(PL!G$4/PL!F$4)</f>
-        <v>42.727272727272727</v>
+        <f t="shared" si="6"/>
+        <v>10</v>
       </c>
       <c r="H13" s="3">
-        <f>+G13*(PL!H$4/PL!G$4)</f>
-        <v>48.18181818181818</v>
+        <f t="shared" si="6"/>
+        <v>10</v>
       </c>
       <c r="I13" s="3">
-        <f>+H13*(PL!I$4/PL!H$4)</f>
-        <v>53.636363636363633</v>
+        <f t="shared" si="6"/>
+        <v>10</v>
       </c>
       <c r="J13" s="3">
-        <f>+I13*(PL!J$4/PL!I$4)</f>
-        <v>59.090909090909086</v>
-      </c>
-      <c r="K13" s="3">
-        <f>+J13*(PL!K$4/PL!J$4)</f>
-        <v>64.545454545454533</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
+      </c>
+      <c r="B14" s="3">
+        <v>5</v>
       </c>
       <c r="C14" s="3">
-        <f>+C12+C13</f>
-        <v>45</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" ref="D14:K14" si="5">+D12+D13</f>
-        <v>59.318181818181813</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" si="5"/>
-        <v>71.590909090909093</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="5"/>
-        <v>83.863636363636374</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="5"/>
-        <v>96.136363636363626</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="5"/>
-        <v>108.40909090909091</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="5"/>
-        <v>120.68181818181816</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="5"/>
-        <v>132.95454545454544</v>
-      </c>
-      <c r="K14" s="3">
-        <f t="shared" si="5"/>
-        <v>145.22727272727269</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
+      </c>
+      <c r="B15" s="3">
+        <f>+SUM(B13:B14)</f>
+        <v>15</v>
       </c>
       <c r="C15" s="3">
-        <v>10</v>
+        <f t="shared" ref="C15:J15" si="7">+SUM(C13:C14)</f>
+        <v>15</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" ref="D15:K16" si="6">+C15</f>
-        <v>10</v>
-      </c>
-      <c r="E15" s="3">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="G15" s="3">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="H15" s="3">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="I15" s="3">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J15" s="3">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="K15" s="3">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="3">
-        <v>5</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="E16" s="3">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="F16" s="3">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="G16" s="3">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="H16" s="3">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="I16" s="3">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="J16" s="3">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="K16" s="3">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="3">
-        <f>+SUM(C15:C16)</f>
-        <v>15</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" ref="D17:K17" si="7">+SUM(D15:D16)</f>
-        <v>15</v>
-      </c>
-      <c r="E17" s="3">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="F17" s="3">
+      <c r="E15" s="3">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="G17" s="3">
+      <c r="F15" s="3">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="H17" s="3">
+      <c r="G15" s="3">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="I17" s="3">
+      <c r="H15" s="3">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="J17" s="3">
+      <c r="I15" s="3">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="K17" s="3">
+      <c r="J15" s="3">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="3">
-        <f t="shared" ref="C18:K18" si="8">+C14+C17</f>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="3">
+        <f t="shared" ref="B16:J16" si="8">+B12+B15</f>
         <v>60</v>
       </c>
-      <c r="D18" s="3">
+      <c r="C16" s="3">
         <f t="shared" si="8"/>
-        <v>74.318181818181813</v>
-      </c>
-      <c r="E18" s="3">
+        <v>72.115384615384613</v>
+      </c>
+      <c r="D16" s="3">
         <f t="shared" si="8"/>
-        <v>86.590909090909093</v>
-      </c>
-      <c r="F18" s="3">
+        <v>82.5</v>
+      </c>
+      <c r="E16" s="3">
         <f t="shared" si="8"/>
-        <v>98.863636363636374</v>
-      </c>
-      <c r="G18" s="3">
+        <v>92.884615384615387</v>
+      </c>
+      <c r="F16" s="3">
         <f t="shared" si="8"/>
-        <v>111.13636363636363</v>
-      </c>
-      <c r="H18" s="3">
+        <v>103.26923076923076</v>
+      </c>
+      <c r="G16" s="3">
         <f t="shared" si="8"/>
-        <v>123.40909090909091</v>
-      </c>
-      <c r="I18" s="3">
+        <v>113.65384615384613</v>
+      </c>
+      <c r="H16" s="3">
         <f t="shared" si="8"/>
-        <v>135.68181818181816</v>
-      </c>
-      <c r="J18" s="3">
+        <v>124.03846153846153</v>
+      </c>
+      <c r="I16" s="3">
         <f t="shared" si="8"/>
-        <v>147.95454545454544</v>
-      </c>
-      <c r="K18" s="3">
+        <v>134.42307692307693</v>
+      </c>
+      <c r="J16" s="3">
         <f t="shared" si="8"/>
-        <v>160.22727272727269</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="3">
+        <v>144.80769230769232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="3">
         <v>50</v>
       </c>
-      <c r="D19" s="3">
-        <f t="shared" ref="D19:K19" si="9">+C19</f>
+      <c r="C17" s="3">
+        <f t="shared" ref="C17:J17" si="9">+B17</f>
         <v>50</v>
       </c>
-      <c r="E19" s="3">
+      <c r="D17" s="3">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="F19" s="3">
+      <c r="E17" s="3">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="G19" s="3">
+      <c r="F17" s="3">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="H19" s="3">
+      <c r="G17" s="3">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="I19" s="3">
+      <c r="H17" s="3">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="J19" s="3">
+      <c r="I17" s="3">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="K19" s="3">
+      <c r="J17" s="3">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="3">
+        <v>75</v>
+      </c>
+      <c r="C18" s="3">
+        <f>+B18+PL!C16</f>
+        <v>140</v>
+      </c>
+      <c r="D18" s="3">
+        <f>+C18+PL!D16</f>
+        <v>215</v>
+      </c>
+      <c r="E18" s="3">
+        <f>+D18+PL!E16</f>
+        <v>300</v>
+      </c>
+      <c r="F18" s="3">
+        <f>+E18+PL!F16</f>
+        <v>395</v>
+      </c>
+      <c r="G18" s="3">
+        <f>+F18+PL!G16</f>
+        <v>500</v>
+      </c>
+      <c r="H18" s="3">
+        <f>+G18+PL!H16</f>
+        <v>615</v>
+      </c>
+      <c r="I18" s="3">
+        <f>+H18+PL!I16</f>
+        <v>740</v>
+      </c>
+      <c r="J18" s="3">
+        <f>+I18+PL!J16</f>
+        <v>875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="3">
+        <f>+B17+B18</f>
+        <v>125</v>
+      </c>
+      <c r="C19" s="3">
+        <f>+C17+C18</f>
+        <v>190</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" ref="D19:J19" si="10">+D17+D18</f>
+        <v>265</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="10"/>
+        <v>350</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="10"/>
+        <v>445</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="10"/>
+        <v>550</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="10"/>
+        <v>665</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="10"/>
+        <v>790</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="10"/>
+        <v>925</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>23</v>
+      </c>
+      <c r="B20" s="3">
+        <f>+B16+B19</f>
+        <v>185</v>
       </c>
       <c r="C20" s="3">
-        <v>75</v>
+        <f t="shared" ref="C20:J20" si="11">+C16+C19</f>
+        <v>262.11538461538464</v>
       </c>
       <c r="D20" s="3">
-        <f>+C20+PL!D15</f>
-        <v>120</v>
+        <f t="shared" si="11"/>
+        <v>347.5</v>
       </c>
       <c r="E20" s="3">
-        <f>+D20+PL!E15</f>
-        <v>175</v>
+        <f t="shared" si="11"/>
+        <v>442.88461538461536</v>
       </c>
       <c r="F20" s="3">
-        <f>+E20+PL!F15</f>
-        <v>240</v>
+        <f t="shared" si="11"/>
+        <v>548.26923076923072</v>
       </c>
       <c r="G20" s="3">
-        <f>+F20+PL!G15</f>
-        <v>315</v>
+        <f t="shared" si="11"/>
+        <v>663.65384615384619</v>
       </c>
       <c r="H20" s="3">
-        <f>+G20+PL!H15</f>
-        <v>400</v>
+        <f t="shared" si="11"/>
+        <v>789.03846153846155</v>
       </c>
       <c r="I20" s="3">
-        <f>+H20+PL!I15</f>
-        <v>495</v>
+        <f t="shared" si="11"/>
+        <v>924.42307692307691</v>
       </c>
       <c r="J20" s="3">
-        <f>+I20+PL!J15</f>
-        <v>600</v>
-      </c>
-      <c r="K20" s="3">
-        <f>+J20+PL!K15</f>
-        <v>715</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="3">
-        <f>+C19+C20</f>
-        <v>125</v>
-      </c>
-      <c r="D21" s="3">
-        <f>+D19+D20</f>
-        <v>170</v>
-      </c>
-      <c r="E21" s="3">
-        <f t="shared" ref="E21:K21" si="10">+E19+E20</f>
-        <v>225</v>
-      </c>
-      <c r="F21" s="3">
-        <f t="shared" si="10"/>
-        <v>290</v>
-      </c>
-      <c r="G21" s="3">
-        <f t="shared" si="10"/>
-        <v>365</v>
-      </c>
-      <c r="H21" s="3">
-        <f t="shared" si="10"/>
-        <v>450</v>
-      </c>
-      <c r="I21" s="3">
-        <f t="shared" si="10"/>
-        <v>545</v>
-      </c>
-      <c r="J21" s="3">
-        <f t="shared" si="10"/>
-        <v>650</v>
-      </c>
-      <c r="K21" s="3">
-        <f t="shared" si="10"/>
-        <v>765</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="3">
-        <f>+C18+C21</f>
-        <v>185</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" ref="D22:K22" si="11">+D18+D21</f>
-        <v>244.31818181818181</v>
-      </c>
-      <c r="E22" s="3">
         <f t="shared" si="11"/>
-        <v>311.59090909090912</v>
-      </c>
-      <c r="F22" s="3">
-        <f t="shared" si="11"/>
-        <v>388.86363636363637</v>
-      </c>
-      <c r="G22" s="3">
-        <f t="shared" si="11"/>
-        <v>476.13636363636363</v>
-      </c>
-      <c r="H22" s="3">
-        <f t="shared" si="11"/>
-        <v>573.40909090909088</v>
-      </c>
-      <c r="I22" s="3">
-        <f t="shared" si="11"/>
-        <v>680.68181818181813</v>
-      </c>
-      <c r="J22" s="3">
-        <f t="shared" si="11"/>
-        <v>797.9545454545455</v>
-      </c>
-      <c r="K22" s="3">
-        <f t="shared" si="11"/>
-        <v>925.22727272727275</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+        <v>1069.8076923076924</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -2513,9 +2379,9 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -2524,9 +2390,9 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -2535,9 +2401,9 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -2546,9 +2412,9 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -2557,9 +2423,9 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -2568,9 +2434,9 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -2579,9 +2445,9 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -2590,9 +2456,9 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2601,9 +2467,9 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -2612,9 +2478,9 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -2623,9 +2489,9 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-    </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -2634,9 +2500,9 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-    </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -2645,9 +2511,9 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-    </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -2656,9 +2522,9 @@
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -2667,9 +2533,9 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -2678,9 +2544,9 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2689,29 +2555,6 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2722,10 +2565,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F518F5-B847-47B0-A8CB-1F820C36B27E}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B6" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
@@ -2733,61 +2576,59 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
+      <c r="B1" s="2">
+        <v>2019</v>
       </c>
       <c r="C1" s="2">
-        <v>2019</v>
+        <f>+B1+1</f>
+        <v>2020</v>
       </c>
       <c r="D1" s="2">
-        <f>+C1+1</f>
-        <v>2020</v>
+        <f t="shared" ref="D1:J1" si="0">+C1+1</f>
+        <v>2021</v>
       </c>
       <c r="E1" s="2">
-        <f t="shared" ref="E1:K1" si="0">+D1+1</f>
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2022</v>
       </c>
       <c r="F1" s="2">
         <f t="shared" si="0"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G1" s="2">
         <f t="shared" si="0"/>
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H1" s="2">
         <f t="shared" si="0"/>
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="I1" s="2">
         <f t="shared" si="0"/>
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="J1" s="2">
         <f t="shared" si="0"/>
-        <v>2026</v>
-      </c>
-      <c r="K1" s="2">
-        <f t="shared" si="0"/>
         <v>2027</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
+      </c>
+      <c r="B2" s="1">
+        <v>15</v>
       </c>
       <c r="C2" s="1">
+        <f t="shared" ref="C2:J2" si="1">+B2</f>
         <v>15</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:K2" si="1">+C2</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="E2" s="1">
@@ -2814,23 +2655,20 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K2" s="1">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5</v>
       </c>
       <c r="C3" s="1">
+        <f t="shared" ref="C3:J3" si="2">+B3</f>
         <v>5</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:K3" si="2">+C3</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E3" s="1">
@@ -2857,24 +2695,21 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="K3" s="1">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="B4" s="1">
+        <f>+SUM(B2:B3)</f>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
-        <f>+SUM(C2:C3)</f>
+        <f t="shared" ref="C4:J4" si="3">+SUM(C2:C3)</f>
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:K4" si="3">+SUM(D2:D3)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="E4" s="1">
@@ -2898,10 +2733,6 @@
         <v>20</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="K4" s="1">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
@@ -2915,10 +2746,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5357650C-A3F0-4669-A268-9A58ECDEBD6F}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
@@ -2926,135 +2757,127 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
+      <c r="B1" s="2">
+        <v>2019</v>
       </c>
       <c r="C1" s="2">
-        <v>2019</v>
+        <f>+B1+1</f>
+        <v>2020</v>
       </c>
       <c r="D1" s="2">
-        <f>+C1+1</f>
-        <v>2020</v>
+        <f t="shared" ref="D1:J1" si="0">+C1+1</f>
+        <v>2021</v>
       </c>
       <c r="E1" s="2">
-        <f t="shared" ref="E1:K1" si="0">+D1+1</f>
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2022</v>
       </c>
       <c r="F1" s="2">
         <f t="shared" si="0"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G1" s="2">
         <f t="shared" si="0"/>
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H1" s="2">
         <f t="shared" si="0"/>
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="I1" s="2">
         <f t="shared" si="0"/>
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="J1" s="2">
         <f t="shared" si="0"/>
-        <v>2026</v>
-      </c>
-      <c r="K1" s="2">
-        <f t="shared" si="0"/>
         <v>2027</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
+      </c>
+      <c r="C2" s="3">
+        <f>+PL!C16</f>
+        <v>65</v>
       </c>
       <c r="D2" s="3">
-        <f>+PL!D15</f>
-        <v>45</v>
+        <f>+PL!D16</f>
+        <v>75</v>
       </c>
       <c r="E2" s="3">
-        <f>+PL!E15</f>
-        <v>55</v>
+        <f>+PL!E16</f>
+        <v>85</v>
       </c>
       <c r="F2" s="3">
-        <f>+PL!F15</f>
-        <v>65</v>
+        <f>+PL!F16</f>
+        <v>95</v>
       </c>
       <c r="G2" s="3">
-        <f>+PL!G15</f>
-        <v>75</v>
+        <f>+PL!G16</f>
+        <v>105</v>
       </c>
       <c r="H2" s="3">
-        <f>+PL!H15</f>
-        <v>85</v>
+        <f>+PL!H16</f>
+        <v>115</v>
       </c>
       <c r="I2" s="3">
-        <f>+PL!I15</f>
-        <v>95</v>
+        <f>+PL!I16</f>
+        <v>125</v>
       </c>
       <c r="J2" s="3">
-        <f>+PL!J15</f>
-        <v>105</v>
-      </c>
-      <c r="K2" s="3">
-        <f>+PL!K15</f>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+        <f>+PL!J16</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="C3" s="3">
+        <f>+PL!C12</f>
+        <v>10</v>
       </c>
       <c r="D3" s="3">
-        <f>+PL!D11</f>
+        <f>+PL!D12</f>
         <v>10</v>
       </c>
       <c r="E3" s="3">
-        <f>+PL!E11</f>
+        <f>+PL!E12</f>
         <v>10</v>
       </c>
       <c r="F3" s="3">
-        <f>+PL!F11</f>
+        <f>+PL!F12</f>
         <v>10</v>
       </c>
       <c r="G3" s="3">
-        <f>+PL!G11</f>
+        <f>+PL!G12</f>
         <v>10</v>
       </c>
       <c r="H3" s="3">
-        <f>+PL!H11</f>
+        <f>+PL!H12</f>
         <v>10</v>
       </c>
       <c r="I3" s="3">
-        <f>+PL!I11</f>
+        <f>+PL!I12</f>
         <v>10</v>
       </c>
       <c r="J3" s="3">
-        <f>+PL!J11</f>
-        <v>10</v>
-      </c>
-      <c r="K3" s="3">
-        <f>+PL!K11</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+        <f>+PL!J12</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="C4" s="3">
+        <f>+CAPEX!B3</f>
+        <v>5</v>
       </c>
       <c r="D4" s="3">
         <f>+CAPEX!C3</f>
@@ -3084,148 +2907,157 @@
         <f>+CAPEX!I3</f>
         <v>5</v>
       </c>
-      <c r="K4" s="3">
-        <f>+CAPEX!J3</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="C5" s="3">
+        <f>+-(Sheet1!C2-Sheet1!B2)</f>
+        <v>-1.3461538461538396</v>
       </c>
       <c r="D5" s="3">
         <f>+-(Sheet1!D2-Sheet1!C2)</f>
-        <v>-1.5909090909090935</v>
+        <v>-1.1538461538461604</v>
       </c>
       <c r="E5" s="3">
         <f>+-(Sheet1!E2-Sheet1!D2)</f>
-        <v>-1.3636363636363598</v>
+        <v>-1.1538461538461462</v>
       </c>
       <c r="F5" s="3">
         <f>+-(Sheet1!F2-Sheet1!E2)</f>
-        <v>-1.3636363636363598</v>
+        <v>-1.1538461538461604</v>
       </c>
       <c r="G5" s="3">
         <f>+-(Sheet1!G2-Sheet1!F2)</f>
-        <v>-1.363636363636374</v>
+        <v>-1.1538461538461604</v>
       </c>
       <c r="H5" s="3">
         <f>+-(Sheet1!H2-Sheet1!G2)</f>
-        <v>-1.3636363636363455</v>
+        <v>-1.1538461538461604</v>
       </c>
       <c r="I5" s="3">
         <f>+-(Sheet1!I2-Sheet1!H2)</f>
-        <v>-1.363636363636374</v>
+        <v>-1.1538461538461462</v>
       </c>
       <c r="J5" s="3">
         <f>+-(Sheet1!J2-Sheet1!I2)</f>
-        <v>-1.3636363636363455</v>
-      </c>
-      <c r="K5" s="3">
-        <f>+-(Sheet1!K2-Sheet1!J2)</f>
-        <v>-1.363636363636374</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+        <v>-1.153846153846132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="C6" s="3">
+        <f>+SUM(C2:C5)</f>
+        <v>78.65384615384616</v>
       </c>
       <c r="D6" s="3">
-        <f>+SUM(D2:D5)</f>
-        <v>58.409090909090907</v>
+        <f t="shared" ref="D6:J6" si="1">+SUM(D2:D5)</f>
+        <v>88.84615384615384</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" ref="E6:K6" si="1">+SUM(E2:E5)</f>
-        <v>68.63636363636364</v>
+        <f t="shared" si="1"/>
+        <v>98.846153846153854</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="1"/>
-        <v>78.63636363636364</v>
+        <v>108.84615384615384</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="1"/>
-        <v>88.636363636363626</v>
+        <v>118.84615384615384</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="1"/>
-        <v>98.636363636363654</v>
+        <v>128.84615384615384</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="1"/>
-        <v>108.63636363636363</v>
+        <v>138.84615384615387</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="1"/>
-        <v>118.63636363636365</v>
-      </c>
-      <c r="K6" s="3">
-        <f t="shared" si="1"/>
-        <v>128.63636363636363</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="3">
+        <v>148.84615384615387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="3">
+        <f>+-CAPEX!B4</f>
+        <v>-20</v>
+      </c>
+      <c r="D7" s="3">
         <f>+-CAPEX!C4</f>
         <v>-20</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E7" s="3">
         <f>+-CAPEX!D4</f>
         <v>-20</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F7" s="3">
         <f>+-CAPEX!E4</f>
         <v>-20</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G7" s="3">
         <f>+-CAPEX!F4</f>
         <v>-20</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H7" s="3">
         <f>+-CAPEX!G4</f>
         <v>-20</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I7" s="3">
         <f>+-CAPEX!H4</f>
         <v>-20</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J7" s="3">
         <f>+-CAPEX!I4</f>
         <v>-20</v>
       </c>
-      <c r="K8" s="3">
-        <f>+-CAPEX!J4</f>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" ref="C8:J8" si="2">+C7</f>
         <v>-20</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -3233,19 +3065,19 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3253,9 +3085,9 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3263,9 +3095,9 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3273,9 +3105,9 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3283,9 +3115,9 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -3293,9 +3125,9 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -3303,9 +3135,9 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -3313,9 +3145,9 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -3323,9 +3155,9 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -3333,9 +3165,9 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -3343,9 +3175,9 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -3353,9 +3185,9 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -3363,9 +3195,9 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -3373,9 +3205,9 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -3383,9 +3215,9 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="4:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -3393,9 +3225,9 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="4:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -3403,9 +3235,9 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="4:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -3413,9 +3245,9 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="4:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -3423,9 +3255,9 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="4:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -3433,9 +3265,9 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="4:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -3443,9 +3275,9 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="4:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -3453,9 +3285,9 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -3463,9 +3295,9 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -3473,9 +3305,9 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -3483,9 +3315,9 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -3493,9 +3325,9 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-    </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -3503,17 +3335,6 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-    </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.4">
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -3524,135 +3345,132 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF22E6A-9341-4301-9DE9-40E44604594E}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="B1" s="3">
+        <f>+BS!B9-BS!B20</f>
+        <v>0</v>
+      </c>
       <c r="C1" s="3">
-        <f>+BS!C10-BS!C22</f>
+        <f>+BS!C9-BS!C20</f>
         <v>0</v>
       </c>
       <c r="D1" s="3">
-        <f>+BS!D10-BS!D22</f>
+        <f>+BS!D9-BS!D20</f>
         <v>0</v>
       </c>
       <c r="E1" s="3">
-        <f>+BS!E10-BS!E22</f>
+        <f>+BS!E9-BS!E20</f>
         <v>0</v>
       </c>
       <c r="F1" s="3">
-        <f>+BS!F10-BS!F22</f>
+        <f>+BS!F9-BS!F20</f>
         <v>0</v>
       </c>
       <c r="G1" s="3">
-        <f>+BS!G10-BS!G22</f>
+        <f>+BS!G9-BS!G20</f>
         <v>0</v>
       </c>
       <c r="H1" s="3">
-        <f>+BS!H10-BS!H22</f>
+        <f>+BS!H9-BS!H20</f>
         <v>0</v>
       </c>
       <c r="I1" s="3">
-        <f>+BS!I10-BS!I22</f>
+        <f>+BS!I9-BS!I20</f>
         <v>0</v>
       </c>
       <c r="J1" s="3">
-        <f>+BS!J10-BS!J22</f>
+        <f>+BS!J9-BS!J20</f>
         <v>0</v>
       </c>
-      <c r="K1" s="3">
-        <f>+BS!K10-BS!K22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3">
+        <f>+SUM(BS!B3:B4)-SUM(BS!B10:B11)</f>
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <f>+SUM(BS!C3:C4)-SUM(BS!C10:C11)</f>
+        <v>6.3461538461538396</v>
+      </c>
+      <c r="D2" s="3">
+        <f>+SUM(BS!D3:D4)-SUM(BS!D10:D11)</f>
+        <v>7.5</v>
+      </c>
+      <c r="E2" s="3">
+        <f>+SUM(BS!E3:E4)-SUM(BS!E10:E11)</f>
+        <v>8.6538461538461462</v>
+      </c>
+      <c r="F2" s="3">
+        <f>+SUM(BS!F3:F4)-SUM(BS!F10:F11)</f>
+        <v>9.8076923076923066</v>
+      </c>
+      <c r="G2" s="3">
+        <f>+SUM(BS!G3:G4)-SUM(BS!G10:G11)</f>
+        <v>10.961538461538467</v>
+      </c>
+      <c r="H2" s="3">
+        <f>+SUM(BS!H3:H4)-SUM(BS!H10:H11)</f>
+        <v>12.115384615384627</v>
+      </c>
+      <c r="I2" s="3">
+        <f>+SUM(BS!I3:I4)-SUM(BS!I10:I11)</f>
+        <v>13.269230769230774</v>
+      </c>
+      <c r="J2" s="3">
+        <f>+SUM(BS!J3:J4)-SUM(BS!J10:J11)</f>
+        <v>14.423076923076906</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3">
-        <f>+SUM(BS!C3:C4)-SUM(BS!C12:C13)</f>
-        <v>5</v>
-      </c>
-      <c r="D2" s="3">
-        <f>+SUM(BS!D3:D4)-SUM(BS!D12:D13)</f>
-        <v>6.5909090909090935</v>
-      </c>
-      <c r="E2" s="3">
-        <f>+SUM(BS!E3:E4)-SUM(BS!E12:E13)</f>
-        <v>7.9545454545454533</v>
-      </c>
-      <c r="F2" s="3">
-        <f>+SUM(BS!F3:F4)-SUM(BS!F12:F13)</f>
-        <v>9.318181818181813</v>
-      </c>
-      <c r="G2" s="3">
-        <f>+SUM(BS!G3:G4)-SUM(BS!G12:G13)</f>
-        <v>10.681818181818187</v>
-      </c>
-      <c r="H2" s="3">
-        <f>+SUM(BS!H3:H4)-SUM(BS!H12:H13)</f>
-        <v>12.045454545454533</v>
-      </c>
-      <c r="I2" s="3">
-        <f>+SUM(BS!I3:I4)-SUM(BS!I12:I13)</f>
-        <v>13.409090909090907</v>
-      </c>
-      <c r="J2" s="3">
-        <f>+SUM(BS!J3:J4)-SUM(BS!J12:J13)</f>
-        <v>14.772727272727252</v>
-      </c>
-      <c r="K2" s="3">
-        <f>+SUM(BS!K3:K4)-SUM(BS!K12:K13)</f>
-        <v>16.136363636363626</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="3">
+        <f>+CS!C6+CS!C7</f>
+        <v>58.65384615384616</v>
+      </c>
       <c r="D3" s="3">
-        <f>+CS!D6+CS!D8</f>
-        <v>38.409090909090907</v>
+        <f>+CS!D6+CS!D7</f>
+        <v>68.84615384615384</v>
       </c>
       <c r="E3" s="3">
-        <f>+CS!E6+CS!E8</f>
-        <v>48.63636363636364</v>
+        <f>+CS!E6+CS!E7</f>
+        <v>78.846153846153854</v>
       </c>
       <c r="F3" s="3">
-        <f>+CS!F6+CS!F8</f>
-        <v>58.63636363636364</v>
+        <f>+CS!F6+CS!F7</f>
+        <v>88.84615384615384</v>
       </c>
       <c r="G3" s="3">
-        <f>+CS!G6+CS!G8</f>
-        <v>68.636363636363626</v>
+        <f>+CS!G6+CS!G7</f>
+        <v>98.84615384615384</v>
       </c>
       <c r="H3" s="3">
-        <f>+CS!H6+CS!H8</f>
-        <v>78.636363636363654</v>
+        <f>+CS!H6+CS!H7</f>
+        <v>108.84615384615384</v>
       </c>
       <c r="I3" s="3">
-        <f>+CS!I6+CS!I8</f>
-        <v>88.636363636363626</v>
+        <f>+CS!I6+CS!I7</f>
+        <v>118.84615384615387</v>
       </c>
       <c r="J3" s="3">
-        <f>+CS!J6+CS!J8</f>
-        <v>98.636363636363654</v>
-      </c>
-      <c r="K3" s="3">
-        <f>+CS!K6+CS!K8</f>
-        <v>108.63636363636363</v>
+        <f>+CS!J6+CS!J7</f>
+        <v>128.84615384615387</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample_sales2.xlsx
+++ b/public/sample_sales2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\tmiyahara\dev\fs\fs-training\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4913217-ED08-4E27-89EA-07628F7AAA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B587865F-0E16-451D-B338-773669A0AD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12405" activeTab="3" xr2:uid="{E62929CF-20DF-4E31-892A-2A26F9304DDF}"/>
+    <workbookView xWindow="14303" yWindow="-68" windowWidth="21795" windowHeight="12976" activeTab="1" xr2:uid="{E62929CF-20DF-4E31-892A-2A26F9304DDF}"/>
   </bookViews>
   <sheets>
     <sheet name="PL" sheetId="4" r:id="rId1"/>
@@ -215,19 +215,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>負債・純資産合計</t>
-    <rPh sb="0" eb="2">
-      <t>フサイ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュンシサン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>運転資本増減</t>
     <rPh sb="0" eb="4">
       <t>ウンテンシホン</t>
@@ -445,6 +432,22 @@
       <t>セツビトウシ</t>
     </rPh>
     <rPh sb="4" eb="6">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>負債及び純資産合計</t>
+    <rPh sb="0" eb="2">
+      <t>フサイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ジュンシサン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
       <t>ゴウケイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -995,7 +998,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="3">
         <v>20</v>
@@ -1318,7 +1321,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="3">
         <v>10</v>
@@ -1358,7 +1361,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="3">
         <v>5</v>
@@ -1529,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B72F84-BC5E-4F9A-95E1-AA222193FD28}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
@@ -1742,7 +1745,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="3">
         <v>20</v>
@@ -1782,7 +1785,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="3">
         <v>15</v>
@@ -1822,7 +1825,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="3">
         <f>+B6+B7</f>
@@ -2025,7 +2028,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="3">
         <v>10</v>
@@ -2065,7 +2068,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="3">
         <v>5</v>
@@ -2105,7 +2108,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="3">
         <f>+SUM(B13:B14)</f>
@@ -2187,7 +2190,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="3">
         <v>50</v>
@@ -2227,7 +2230,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="3">
         <v>75</v>
@@ -2267,7 +2270,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="3">
         <f>+B17+B18</f>
@@ -2308,7 +2311,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B20" s="3">
         <f>+B16+B19</f>
@@ -2618,7 +2621,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1">
         <v>15</v>
@@ -2658,7 +2661,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
@@ -2698,7 +2701,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1">
         <f>+SUM(B2:B3)</f>
@@ -2748,7 +2751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5357650C-A3F0-4669-A268-9A58ECDEBD6F}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -2799,7 +2802,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="3">
         <f>+PL!C16</f>
@@ -2836,7 +2839,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="3">
         <f>+PL!C12</f>
@@ -2873,7 +2876,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3">
         <f>+CAPEX!B3</f>
@@ -2910,7 +2913,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3">
         <f>+-(Sheet1!C2-Sheet1!B2)</f>
@@ -2947,7 +2950,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3">
         <f>+SUM(C2:C5)</f>
@@ -2984,7 +2987,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="3">
         <f>+-CAPEX!B4</f>
@@ -3021,7 +3024,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ref="C8:J8" si="2">+C7</f>
@@ -3355,7 +3358,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3">
         <f>+BS!B9-BS!B20</f>
@@ -3437,7 +3440,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="3">

--- a/public/sample_sales2.xlsx
+++ b/public/sample_sales2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\tmiyahara\dev\fs\fs-training\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B587865F-0E16-451D-B338-773669A0AD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACD1D1D-17E9-4225-B9AF-66B76B8B2716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="-68" windowWidth="21795" windowHeight="12976" activeTab="1" xr2:uid="{E62929CF-20DF-4E31-892A-2A26F9304DDF}"/>
+    <workbookView xWindow="28680" yWindow="-195" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{E62929CF-20DF-4E31-892A-2A26F9304DDF}"/>
   </bookViews>
   <sheets>
     <sheet name="PL" sheetId="4" r:id="rId1"/>
@@ -136,13 +136,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>現預金</t>
-    <rPh sb="0" eb="3">
-      <t>ゲンヨキン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>売掛金</t>
     <rPh sb="0" eb="3">
       <t>ウリカケキン</t>
@@ -403,23 +396,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>無形固定資産償却費_PL</t>
-    <rPh sb="0" eb="6">
-      <t>ムケイコテイシサン</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ショウキャクヒ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>減価償却費_PL</t>
-    <rPh sb="0" eb="5">
-      <t>ゲンカショウキャクヒ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>営業利益_CF</t>
     <rPh sb="0" eb="4">
       <t>エイギョウリエキ</t>
@@ -448,6 +424,33 @@
       <t>ジュンシサン</t>
     </rPh>
     <rPh sb="7" eb="9">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>減価償却費</t>
+    <rPh sb="0" eb="5">
+      <t>ゲンカショウキャクヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無形固定資産償却費</t>
+    <rPh sb="0" eb="6">
+      <t>ムケイコテイシサン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ショウキャクヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>現預金合計</t>
+    <rPh sb="0" eb="3">
+      <t>ゲンヨキン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
       <t>ゴウケイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -866,7 +869,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
@@ -998,7 +1001,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3">
         <v>20</v>
@@ -1321,7 +1324,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" s="3">
         <v>10</v>
@@ -1361,7 +1364,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B13" s="3">
         <v>5</v>
@@ -1533,7 +1536,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
@@ -1584,7 +1587,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B2" s="3">
         <v>100</v>
@@ -1624,7 +1627,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3">
         <v>20</v>
@@ -1664,7 +1667,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3">
         <v>30</v>
@@ -1704,7 +1707,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3">
         <f>+SUM(B2:B4)</f>
@@ -1745,7 +1748,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3">
         <v>20</v>
@@ -1785,7 +1788,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="3">
         <v>15</v>
@@ -1825,7 +1828,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="3">
         <f>+B6+B7</f>
@@ -1866,7 +1869,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3">
         <f t="shared" ref="B9:J9" si="4">+B5+B8</f>
@@ -1907,7 +1910,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3">
         <v>25</v>
@@ -1947,7 +1950,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3">
         <v>20</v>
@@ -1987,7 +1990,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3">
         <f>+B10+B11</f>
@@ -2028,7 +2031,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="3">
         <v>10</v>
@@ -2068,7 +2071,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="3">
         <v>5</v>
@@ -2108,7 +2111,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="3">
         <f>+SUM(B13:B14)</f>
@@ -2149,7 +2152,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="3">
         <f t="shared" ref="B16:J16" si="8">+B12+B15</f>
@@ -2190,7 +2193,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="3">
         <v>50</v>
@@ -2230,7 +2233,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="3">
         <v>75</v>
@@ -2270,7 +2273,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="3">
         <f>+B17+B18</f>
@@ -2311,7 +2314,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
         <f>+B16+B19</f>
@@ -2621,7 +2624,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1">
         <v>15</v>
@@ -2661,7 +2664,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
@@ -2701,7 +2704,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1">
         <f>+SUM(B2:B3)</f>
@@ -2802,7 +2805,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3">
         <f>+PL!C16</f>
@@ -2839,7 +2842,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="3">
         <f>+PL!C12</f>
@@ -2876,7 +2879,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3">
         <f>+CAPEX!B3</f>
@@ -2913,7 +2916,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3">
         <f>+-(Sheet1!C2-Sheet1!B2)</f>
@@ -2950,7 +2953,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3">
         <f>+SUM(C2:C5)</f>
@@ -2987,7 +2990,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" s="3">
         <f>+-CAPEX!B4</f>
@@ -3024,7 +3027,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ref="C8:J8" si="2">+C7</f>
@@ -3358,7 +3361,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="3">
         <f>+BS!B9-BS!B20</f>
@@ -3399,7 +3402,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3">
         <f>+SUM(BS!B3:B4)-SUM(BS!B10:B11)</f>
@@ -3440,7 +3443,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="3">
